--- a/medicine/Psychotrope/Maître_Renard/Maître_Renard.xlsx
+++ b/medicine/Psychotrope/Maître_Renard/Maître_Renard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ma%C3%AEtre_Renard</t>
+          <t>Maître_Renard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Maître Renard est une micro-brasserie et un bar à vin situé à Chibougamau, en Eeyou Istchee Baie-James (Nord-du-Québec).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ma%C3%AEtre_Renard</t>
+          <t>Maître_Renard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maître Renard est fondé en 2021 à Chibougamau, par Jonathan Mattson, Nathaniel Perron, Pascal Perreault et Francis Néron. La micro-brasserie est à la fois un bar à vin, et un producteur de bières artisanales. L'entreprise est la première micro-brasserie à ouvrir ses portes sur le territoire du Nord-du-Québec[1],[2]. Son concept vise la mise en valeur de produits locaux : le mobilier y est conçu par l'entreprise forestière locale Chantiers Chibougamau[1] et les bières sont produites à partir de plantes de la forêt boréale. Maître Renard s'approvisionne en produits forestiers de manière écoresponsable auprès de l'organisme régional FaunENord[3].
-En juin 2023, l'entreprise connaît des difficultés en raison des feux de forêts qui forcent l'évacuation de Chibougamau. Les services d'urgence parviennent toutefois à restreindre les pertes lors de la production de bière en ajustant les fermenteurs. L'étendu du territoire brûlé ne menace pas à courte terme la production de Maître Renard[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maître Renard est fondé en 2021 à Chibougamau, par Jonathan Mattson, Nathaniel Perron, Pascal Perreault et Francis Néron. La micro-brasserie est à la fois un bar à vin, et un producteur de bières artisanales. L'entreprise est la première micro-brasserie à ouvrir ses portes sur le territoire du Nord-du-Québec,. Son concept vise la mise en valeur de produits locaux : le mobilier y est conçu par l'entreprise forestière locale Chantiers Chibougamau et les bières sont produites à partir de plantes de la forêt boréale. Maître Renard s'approvisionne en produits forestiers de manière écoresponsable auprès de l'organisme régional FaunENord.
+En juin 2023, l'entreprise connaît des difficultés en raison des feux de forêts qui forcent l'évacuation de Chibougamau. Les services d'urgence parviennent toutefois à restreindre les pertes lors de la production de bière en ajustant les fermenteurs. L'étendu du territoire brûlé ne menace pas à courte terme la production de Maître Renard.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ma%C3%AEtre_Renard</t>
+          <t>Maître_Renard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Renard noir : bière stout à l'avoine et au sapin baumier, 5,5 % d'alcool ;
 Renard brun : bière de type brown ale au lactaire et à l'érable, 5,6 % d'alcool ;
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ma%C3%AEtre_Renard</t>
+          <t>Maître_Renard</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,9 +599,11 @@
           <t>Patrimoine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La micro-brasserie Maître Renard est établie dans l'hôtel Chibougamau Inn[2]. Bâti en 1951, avant la fondation de la ville de Chibougamau, l'immeuble est inscrit au Répertoire du patrimoine culturel du Québec[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La micro-brasserie Maître Renard est établie dans l'hôtel Chibougamau Inn. Bâti en 1951, avant la fondation de la ville de Chibougamau, l'immeuble est inscrit au Répertoire du patrimoine culturel du Québec.
 </t>
         </is>
       </c>
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ma%C3%AEtre_Renard</t>
+          <t>Maître_Renard</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,9 +632,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maître Renard est un des hôte du festival musical La Débâcle de Chibougamau[6]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maître Renard est un des hôte du festival musical La Débâcle de Chibougamau. 
 </t>
         </is>
       </c>
@@ -627,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ma%C3%AEtre_Renard</t>
+          <t>Maître_Renard</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,9 +665,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2022 : Coupe des bières canadienne. Bronze dans la catégorie « Bière de style canadien » pour la bière « Renard brun »[7].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2022 : Coupe des bières canadienne. Bronze dans la catégorie « Bière de style canadien » pour la bière « Renard brun ».</t>
         </is>
       </c>
     </row>
